--- a/BASE DE DATOS/Atributos BD.xlsx
+++ b/BASE DE DATOS/Atributos BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yesenia\Documents\YESENIA\CLASES DEL SENA\PROYECTO_SENA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yesenia\Documents\YESENIA\CLASES DEL SENA\PROYECTO_SENA\BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FB11C-90FC-4396-B350-E3F556E175FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA9F84B-D498-4C0F-9B26-2D01024F1247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07FFD592-CF84-407D-9439-F7CACDFD84B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ROLES</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLICACION DE SERVICIOS </t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,6 +619,9 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
